--- a/ADHD_CC200_ROI_labels.xlsx
+++ b/ADHD_CC200_ROI_labels.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yagmu\Desktop\Auburn\Research\project\Logistic regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yagmu\Desktop\ADHD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512502E6-236B-49A8-B402-6348DDA6E2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAAE211-C768-4F7D-90AA-837E3254FBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5620" yWindow="1250" windowWidth="7540" windowHeight="9170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Logistic regression" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="320">
   <si>
     <t>Superior Frontal Gyrus          Frontal_Sup_Orb_R</t>
   </si>
@@ -962,6 +962,39 @@
   </si>
   <si>
     <t>selected by lasso</t>
+  </si>
+  <si>
+    <t>Frontal_Inf_Orb_R'</t>
+  </si>
+  <si>
+    <t>Vermis_1_2'</t>
+  </si>
+  <si>
+    <t>Pallidum_R'</t>
+  </si>
+  <si>
+    <t>Postcentral_R'</t>
+  </si>
+  <si>
+    <t>Cingulum_Ant_L'</t>
+  </si>
+  <si>
+    <t>Frontal_Med_Orb_R'</t>
+  </si>
+  <si>
+    <t>Precuneus_R'</t>
+  </si>
+  <si>
+    <t>Caudate_Head_L'</t>
+  </si>
+  <si>
+    <t>Temporal_Inf_L'</t>
+  </si>
+  <si>
+    <t>Temporal_Mid_L'</t>
+  </si>
+  <si>
+    <t>Vermis_6'</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1101,60 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1203,29 +1289,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="B2:K192" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="B2:K192" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="B2:K192" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Channel's region" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="x-coordinate" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="y-coordinate" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="z-coordinate" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Channel region (again)" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="cc200 value" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{E974CCF6-1423-4228-AF93-8D7731AA3E73}" name="selected " dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{3FD20BFC-DC2F-4C2E-923D-3C60612D8E1A}" name="names" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{83DD14A8-A1CF-4550-922B-413B6AA5334C}" name="names2" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{EA9A067B-8D71-4097-99BD-361E95AD6C42}" name="freq" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Channel's region" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="x-coordinate" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="y-coordinate" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="z-coordinate" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Channel region (again)" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="cc200 value" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{E974CCF6-1423-4228-AF93-8D7731AA3E73}" name="selected " dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{3FD20BFC-DC2F-4C2E-923D-3C60612D8E1A}" name="names" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{83DD14A8-A1CF-4550-922B-413B6AA5334C}" name="names2" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{EA9A067B-8D71-4097-99BD-361E95AD6C42}" name="freq" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A2:A192" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A2:A192" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A2:A192" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Channel no." dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Channel no." dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1239,11 +1325,31 @@
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{62CF746A-A953-4248-9795-6A6FF65B9EAD}" name="lobe name"/>
-    <tableColumn id="2" xr3:uid="{9FB57489-797B-4CA2-946B-859209EA5CDA}" name="frequency" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{9FB57489-797B-4CA2-946B-859209EA5CDA}" name="frequency" dataDxfId="6">
       <calculatedColumnFormula>10*381</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C774A46E-CC66-4E27-9CEE-0C9B79D18F92}" name="Table24" displayName="Table24" ref="B2:B192" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="B2:B192" xr:uid="{C774A46E-CC66-4E27-9CEE-0C9B79D18F92}"/>
+  <tableColumns count="1">
+    <tableColumn id="5" xr3:uid="{E2C5FB1C-7B60-475A-BD41-359ED70CFDD0}" name="Channel region (again)" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8FF8BC4D-3087-40FD-977E-A8F26302CAAD}" name="Table36" displayName="Table36" ref="A2:A192" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A2:A192" xr:uid="{8FF8BC4D-3087-40FD-977E-A8F26302CAAD}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{654151BE-A076-4967-8293-7779F31E265C}" name="Channel no." dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1573,8 +1679,8 @@
   </sheetPr>
   <dimension ref="A1:Q192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7288,13 +7394,1571 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F192"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
+        <v>61</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
+        <v>63</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
+        <v>65</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="3">
+        <v>67</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="3">
+        <v>69</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
+        <v>71</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="3">
+        <v>73</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="3">
+        <v>75</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
+        <v>77</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
+        <v>79</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="3">
+        <v>81</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
+        <v>82</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="3">
+        <v>83</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="3">
+        <v>84</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="3">
+        <v>85</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="3">
+        <v>86</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="3">
+        <v>87</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
+        <v>88</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="3">
+        <v>89</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="3">
+        <v>90</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="3">
+        <v>91</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="3">
+        <v>92</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="3">
+        <v>93</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="3">
+        <v>94</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="3">
+        <v>95</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="3">
+        <v>96</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="3">
+        <v>97</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="3">
+        <v>98</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="3">
+        <v>99</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="3">
+        <v>100</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="3">
+        <v>101</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="3">
+        <v>102</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="3">
+        <v>103</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="3">
+        <v>104</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="3">
+        <v>105</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="3">
+        <v>106</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="3">
+        <v>107</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="3">
+        <v>108</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="3">
+        <v>109</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="3">
+        <v>110</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="3">
+        <v>111</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="3">
+        <v>112</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="3">
+        <v>113</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="3">
+        <v>114</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="3">
+        <v>115</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="3">
+        <v>116</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="3">
+        <v>117</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="3">
+        <v>118</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="3">
+        <v>119</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="3">
+        <v>120</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="3">
+        <v>121</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="3">
+        <v>122</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="3">
+        <v>123</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="3">
+        <v>124</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="3">
+        <v>125</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="3">
+        <v>126</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="3">
+        <v>127</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="3">
+        <v>128</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="3">
+        <v>129</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="3">
+        <v>130</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="3">
+        <v>131</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="3">
+        <v>132</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="3">
+        <v>133</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="3">
+        <v>134</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="3">
+        <v>135</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="3">
+        <v>136</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="3">
+        <v>137</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="3">
+        <v>138</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="3">
+        <v>139</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="3">
+        <v>140</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="3">
+        <v>141</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="3">
+        <v>142</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="3">
+        <v>143</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="3">
+        <v>144</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="3">
+        <v>145</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="3">
+        <v>146</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="3">
+        <v>147</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="3">
+        <v>148</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="3">
+        <v>149</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="3">
+        <v>150</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="3">
+        <v>151</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="3">
+        <v>152</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="3">
+        <v>153</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="3">
+        <v>154</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="3">
+        <v>155</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="3">
+        <v>156</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="3">
+        <v>157</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="3">
+        <v>158</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="3">
+        <v>159</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="3">
+        <v>160</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="3">
+        <v>161</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="3">
+        <v>162</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="3">
+        <v>163</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="3">
+        <v>164</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="3">
+        <v>165</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="3">
+        <v>166</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="3">
+        <v>167</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="3">
+        <v>168</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="3">
+        <v>169</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="3">
+        <v>170</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="3">
+        <v>171</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="3">
+        <v>172</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="3">
+        <v>173</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="3">
+        <v>174</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="3">
+        <v>175</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="3">
+        <v>176</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="3">
+        <v>177</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="3">
+        <v>178</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="3">
+        <v>179</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="3">
+        <v>180</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="3">
+        <v>181</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="3">
+        <v>182</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="3">
+        <v>183</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="3">
+        <v>184</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="3">
+        <v>185</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="3">
+        <v>186</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="3">
+        <v>187</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="3">
+        <v>188</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="3">
+        <v>189</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="3">
+        <v>190</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
